--- a/Automator/Facebook/comments.xlsx
+++ b/Automator/Facebook/comments.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programming\My Files\Programming language\Python\python project\Web Scraping project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programming\My Files\Programming language\Python\python project\Web Scraping project\Automator\Facebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F648C2C-F793-4606-B94A-1D2F18A00DDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CF534F-A5D1-4AC1-9D63-B3FA12FBCAEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>comment</t>
   </si>
@@ -54,9 +54,6 @@
     <t>السعر</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>قلوب</t>
   </si>
   <si>
@@ -90,16 +87,25 @@
     <t>واااااااو</t>
   </si>
   <si>
-    <t>سمايل قلوب</t>
-  </si>
-  <si>
     <t>سمايل نجوم</t>
   </si>
   <si>
     <t>روعة</t>
   </si>
   <si>
-    <t>نقطة</t>
+    <t>All</t>
+  </si>
+  <si>
+    <t>….</t>
+  </si>
+  <si>
+    <t>سمايل قلب</t>
+  </si>
+  <si>
+    <t>\u{2764}</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
 </sst>
 </file>
@@ -115,7 +121,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -425,21 +431,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.19921875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.19921875" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.19921875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.796875" style="1"/>
+    <col min="4" max="4" width="15.3984375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,130 +456,159 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="B20" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
